--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,51 +477,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>7</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>12</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>5</v>
@@ -525,262 +537,300 @@
         <v>5</v>
       </c>
       <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>15</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>16</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
         <v>12</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>19</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>18</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
         <v>11</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>19</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>9</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>18</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>9</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>20</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>7</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>15</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>17</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>7</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>8</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>17</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>9</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>16</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>7</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>14</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>7</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>15</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B09L9DY4L1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>14</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z690 AERO G DDR4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>863 units</t>
+          <t>864 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7</v>
-      </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
         <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7</v>
-      </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
       <c r="H16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
+++ b/Sufficient data/forecast_summary_B09L9DY4L1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -17,14 +17,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +49,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,695 +439,3779 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Week_Start_Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>trend</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>trend_lower</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>trend_upper</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_Mean Forecast_lower</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_Mean Forecast_upper</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P70 Forecast_lower</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P70 Forecast_upper</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P80 Forecast_lower</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P80 Forecast_upper</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P90 Forecast_lower</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon_P90 Forecast_upper</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Black Friday</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Black Friday_lower</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Black Friday_upper</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Christmas</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Christmas_lower</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Christmas_upper</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Cyber Monday</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Cyber Monday_lower</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Cyber Monday_upper</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Prime Day</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Prime Day_lower</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Prime Day_upper</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>extra_regressors_multiplicative</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>extra_regressors_multiplicative_lower</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>extra_regressors_multiplicative_upper</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>holidays</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>holidays_lower</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>holidays_upper</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>multiplicative_terms</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>multiplicative_terms_lower</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>multiplicative_terms_upper</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>prime_day</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>prime_day_lower</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>prime_day_upper</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>weekly_lower</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>weekly_upper</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>yearly</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>yearly_lower</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>yearly_upper</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>additive_terms</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>additive_terms_lower</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>additive_terms_upper</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_Mean</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_Mean</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_P70</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_P70</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_P80</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_P80</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_P90</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_P90</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast_XGB</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MyForecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Product Title</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.534516871278068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.589390842546487</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.74980543284952</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.534516746057518</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.53451696628056</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.03042290927388092</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.03042290927388092</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.03042290927388092</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.02030461976750826</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.02030461976750826</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.02030461976750826</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.05072752904138918</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.05072752904138918</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.05072752904138918</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>6.733315885201606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>133</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>133</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="BR2" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.458972176086425</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.071041210576041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.85172772797084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.458971527805123</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.458972712597569</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.005881852297959272</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.005881852297959272</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.005881852297959272</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.014422767469549</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.014422767469549</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.014422767469549</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>6.420981455750056</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>-45</v>
+      </c>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.383427480894783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.64702007463591</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.70612278972346</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.383426028218643</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.38342883023854</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.008498138934248865</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.008498138934248865</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.008498138934248865</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0118064808332594</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0118064808332594</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0118064808332594</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>6.329180227285437</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>-45</v>
+      </c>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.307882785703137</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-7.202858699598218</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.30642834828663</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.307880263390722</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.307884987666169</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.01377426253304287</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.01377426253304287</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.01377426253304287</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.03407888230055113</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.03407888230055113</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.03407888230055113</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>6.394769219221074</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>-25</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>-53</v>
+      </c>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="A6" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.232338090511496</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.38968801988449</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.73125686969962</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.232334300209941</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.232341124034924</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.03590563639254428</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.03590563639254428</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.03590563639254428</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05621025616005254</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.05621025616005254</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.05621025616005254</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>6.456114155864805</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BQ6" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="BR6" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="A7" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.156793395319852</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.06761012176259</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.87950468008061</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.156788168434336</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.156797604231963</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.03886844025622356</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.03886844025622356</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.03886844025622356</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.05917306002373182</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.05917306002373182</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.05917306002373182</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>6.396098351575754</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ7" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="BR7" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.08124870012821</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.22233769387037</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.16432336546225</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.081241893237289</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.081254094738755</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.01956363997197623</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01956363997197623</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.01956363997197623</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.02030461976750826</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.02030461976750826</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.02030461976750826</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.0398682597394845</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.0398682597394845</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.0398682597394845</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>6.200220060277567</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-53</v>
+      </c>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ8" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="BR8" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.005704004936565</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.376228006224133</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.54490011398329</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.00569586571002</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.005710687031698</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.01476767067084566</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.01476767067084566</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.01476767067084566</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.005536949096662608</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.005536949096662608</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.005536949096662608</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>5.917013746045083</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-53</v>
+      </c>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>22</v>
+      </c>
+      <c r="BQ9" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="BR9" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.930159309744923</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-8.590205075834316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.49767123768748</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.93014957703945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.930167533106995</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.05476764900327549</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.05476764900327549</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.05476764900327549</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.03446302923576722</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.03446302923576722</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.03446302923576722</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>5.605378426135307</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>200</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-33</v>
+      </c>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ10" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="BR10" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.854614614553279</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.108537309934146</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.5573257052301</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.854603322749933</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.854624454066873</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.09064488520586202</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.09064488520586202</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.09064488520586202</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.07034026543835374</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.07034026543835374</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.07034026543835374</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>5.323923744892535</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>-54</v>
+      </c>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ11" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="BR11" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.779069919361637</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.206541250928183</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.30164279412344</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.779057082678333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.779081336963768</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1117799077906411</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1117799077906411</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1117799077906411</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.09147528802313282</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.09147528802313282</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.09147528802313282</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>5.133086016659726</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>-54</v>
+      </c>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>22</v>
+      </c>
+      <c r="BQ12" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="BR12" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.703525224169992</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.485370302936918</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.87894631325791</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.70351042698075</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.703538215931328</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.1117512497680404</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.1117512497680404</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.1117512497680404</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.09144663000053213</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.09144663000053213</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.09144663000053213</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>5.066149152285452</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>25</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>66</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>-54</v>
+      </c>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ13" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="BR13" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.627980528978348</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.290516378944016</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.0494377681837</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.62796400887555</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.627995152061293</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.09558921108170848</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.09558921108170848</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-0.09558921108170848</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-0.07528459131420021</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-0.07528459131420021</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>-0.07528459131420021</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>5.090006310230091</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>-50</v>
+      </c>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ14" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="BR14" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.552435833786706</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.383378435291101</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.14634971074625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.552417459445027</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.552452225994851</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.0785434390750932</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.0785434390750932</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.0785434390750932</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.05823881930758493</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.05823881930758493</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.05823881930758493</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>5.116328428157316</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>-37</v>
+      </c>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BQ15" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="BR15" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-05-04</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.476891138595063</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.070702502696543</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19.41150548763283</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.476871232067879</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.476909929222303</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.07381153109474167</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.07381153109474167</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.07381153109474167</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-0.0535069113272334</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>-0.0535069113272334</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>-0.0535069113272334</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>5.072633418016138</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>25</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>-44</v>
+      </c>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ16" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="BR16" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.401346443403421</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.72364625836625</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.64463819908243</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.401324596905893</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.401367154882986</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-0.0809413442928528</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.0809413442928528</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.0809413442928528</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>-0.02030461976750827</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-0.06063672452534453</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>-0.06063672452534453</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>-0.06063672452534453</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>4.964154201282929</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>150</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>25</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>-44</v>
+      </c>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BQ17" t="inlineStr">
         <is>
           <t>B09L9DY4L1</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="BR17" t="inlineStr">
         <is>
           <t>Z690 AERO G DDR4</t>
         </is>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1134,12 +4234,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -1153,7 +4253,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1237,7 +4337,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1285,7 +4385,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +4409,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
